--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B80AA-9DF8-4B40-BDC6-F08E64A51D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B158E-D386-4F7F-929A-5C8E6F59E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Control</t>
   </si>
@@ -130,6 +130,123 @@
   </si>
   <si>
     <t>msdTeilnahmeerinnerungTrainings</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Teilnahme am Training?']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Teilnahme am Training?']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Terminumfrage für Spielverlegung']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Terminumfrage für Spielverlegung']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Bestätigung der Spielverlegung']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Bestätigung der Spielverlegung']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Ersatzanfrage an dich gestellt?']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Ersatzanfrage an dich gestellt']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Ersatz erfolgreich für dich gefunden']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Ersatz erfolgreich für dich gefunden']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Neues Mannschaftsspiel angelegt']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Neues Mannschaftsspiel angelegt']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Einladung für Vereinstermin']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Einladung für Vereinstermin']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Erinnerung an Spieltermin']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Erinnerung an Spieltermin']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Mannschaftsspiel zugeordnet']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Mannschaftsspiel zugeordnet']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Erinnerung an ungelesene Nachrichten im Chat']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Erinnerung an ungelesene Nachrichten im Chat']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Neue Nachricht im Training, Spiel oder Vereinstermin']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Neue Nachricht im Training, Spiel oder Vereinstermin']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Benachrichtigung bei Trainingsausfall']/parent::*/td[@data-label = '📱 App']/div/input</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Benachrichtigung bei Trainingsausfall']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
+  </si>
+  <si>
+    <t>id=chat_push_notification</t>
+  </si>
+  <si>
+    <t>id=select2-data-training_ids</t>
+  </si>
+  <si>
+    <t>id=reminder_games_hours</t>
+  </si>
+  <si>
+    <t>text=Speichern</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Allen zugeordneten Trainings</t>
+  </si>
+  <si>
+    <t>&lt;ENABLED&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOP&gt;</t>
+  </si>
+  <si>
+    <t>Delete all notifications</t>
+  </si>
+  <si>
+    <t>&lt;SET&gt;</t>
+  </si>
+  <si>
+    <t>&lt;UNCHECK&gt;</t>
+  </si>
+  <si>
+    <t>&lt;CLEAR&gt;</t>
+  </si>
+  <si>
+    <t>Log all values</t>
+  </si>
+  <si>
+    <t>&lt;GET&gt;</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -145,12 +262,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,8 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -189,15 +316,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>302847</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1278207</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>38504</xdr:rowOff>
+      <xdr:rowOff>145184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -220,52 +347,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274320" y="1379220"/>
+          <a:off x="327660" y="1485900"/>
           <a:ext cx="15619047" cy="12009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>290364</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>178568</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08A3C8D-01BA-BFE0-C0B5-27A6CC9C9D76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17320260" y="1097280"/>
-          <a:ext cx="8809524" cy="4019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,169 +657,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="30.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="26.33203125" customWidth="1"/>
-    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.44140625" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32" style="1" customWidth="1"/>
+    <col min="19" max="19" width="34.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="33.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="28.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.5546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="24.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.44140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3B158E-D386-4F7F-929A-5C8E6F59E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395C1BC6-41F6-4451-822A-0022A88D2218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -207,9 +207,6 @@
     <t>id=chat_push_notification</t>
   </si>
   <si>
-    <t>id=select2-data-training_ids</t>
-  </si>
-  <si>
     <t>id=reminder_games_hours</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>id=training_ids</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,13 +876,13 @@
         <v>59</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>2</v>
@@ -890,97 +890,97 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF3" s="4"/>
     </row>
@@ -1067,108 +1067,108 @@
         <v>13</v>
       </c>
       <c r="AB4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="AC5" s="1">
         <v>42</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395C1BC6-41F6-4451-822A-0022A88D2218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A88422-427D-46DD-A16D-0FDE6DDEBDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A88422-427D-46DD-A16D-0FDE6DDEBDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705D7C0C-73D2-495C-A126-04044D1932B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="840" yWindow="1152" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -288,12 +288,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -657,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +697,7 @@
     <col min="31" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,103 +887,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705D7C0C-73D2-495C-A126-04044D1932B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC14DC-EE39-4B6D-B15D-DACEAD45DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1152" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="252" yWindow="1380" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EC14DC-EE39-4B6D-B15D-DACEAD45DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D939E7-1E83-453C-A6A9-CE64628F8C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="1380" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="40116" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>Check defaults</t>
   </si>
   <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>&lt;CHK&gt;</t>
-  </si>
-  <si>
     <t>butSpeichern</t>
   </si>
   <si>
@@ -222,15 +207,9 @@
     <t>&lt;ENABLED&gt;</t>
   </si>
   <si>
-    <t>&lt;NOP&gt;</t>
-  </si>
-  <si>
     <t>Delete all notifications</t>
   </si>
   <si>
-    <t>&lt;SET&gt;</t>
-  </si>
-  <si>
     <t>&lt;UNCHECK&gt;</t>
   </si>
   <si>
@@ -240,20 +219,26 @@
     <t>Log all values</t>
   </si>
   <si>
-    <t>&lt;GET&gt;</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>id=training_ids</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +246,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +265,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,11 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -316,13 +323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1278207</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1727787</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>145184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -656,517 +663,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="29.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="32" style="1" customWidth="1"/>
-    <col min="19" max="19" width="34.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="28.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="32.5546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="24.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.44140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="31.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32" style="1" customWidth="1"/>
+    <col min="18" max="18" width="34.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="33.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="28.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="1">
         <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D939E7-1E83-453C-A6A9-CE64628F8C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E161D31-AEA5-4C4B-BC7A-FAE98AA03974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="40116" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="852" yWindow="780" windowWidth="37308" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <t>Check defaults</t>
   </si>
@@ -232,13 +232,361 @@
   </si>
   <si>
     <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Teilnahme am Training?"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Typ: Teilnahme am Training?"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Ersatzanfrage an dich gestellt?"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Ersatzanfrage an dich gestellt?"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Einladung für Vereinstermin"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Einladung für Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>📱</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> App:"]/android.widget.CheckBox</t>
+    </r>
+  </si>
+  <si>
+    <t>//android.view.View[@text="Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>//android.widget.CheckBox[@resource-id="chat_push_notification"]</t>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id="select2-training_ids-container"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="reminder_games_hours"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text="Speichern"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +602,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFC77DBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +633,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +655,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -327,8 +685,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1727787</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4326207</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>145184</xdr:rowOff>
     </xdr:to>
@@ -665,17 +1023,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AC2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="143.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="152.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="34" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.109375" style="1" customWidth="1"/>
@@ -703,7 +1059,7 @@
     <col min="30" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -792,40 +1148,96 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -914,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -1003,7 +1415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E161D31-AEA5-4C4B-BC7A-FAE98AA03974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F4CB3-A041-4F10-ABB7-9247F7A77F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="780" windowWidth="37308" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F4CB3-A041-4F10-ABB7-9247F7A77F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74B21C-D5CC-42F1-8C4E-56DE55A591DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="780" windowWidth="37308" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -262,8 +262,20 @@
     <t>//android.view.View[@text="Typ: Teilnahme am Training?"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
   </si>
   <si>
-    <r>
-      <t>//android.view.View[@text="Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="</t>
+    <t>//android.widget.CheckBox[@resource-id="chat_push_notification"]</t>
+  </si>
+  <si>
+    <t>//android.widget.ListView[@resource-id="select2-training_ids-container"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="reminder_games_hours"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text="Speichern"]</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -287,11 +299,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Terminumfrage für Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -315,11 +327,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Ersatzanfrage an dich gestellt?"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Bestätigung der Spielverlegung"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -343,11 +355,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Ersatzanfrage an dich gestellt?"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -371,11 +383,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Ersatz erfolgreich für dich gefunden"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Einladung für Vereinstermin"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -399,11 +411,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Neues Mannschaftsspiel angelegt"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Einladung für Vereinstermin"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Einladung für Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -427,11 +439,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Einladung für Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -455,11 +467,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Erinnerung an Spieltermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -483,11 +495,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Mannschaftsspiel zugeordnet"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -511,11 +523,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Erinnerung an ungelesene Nachrichten im Chat"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -539,11 +551,11 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Neue Nachricht im Training, Spiel oder Vereinstermin"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <r>
-      <t>//android.view.View[@text="Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="</t>
+    <t>//android.view.View[@text="Typ: Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <r>
+      <t>//android.view.View[@text="Typ: Ersatzanfrage an dich gestellt"]/parent::*/android.view.View[@text="</t>
     </r>
     <r>
       <rPr>
@@ -567,19 +579,7 @@
     </r>
   </si>
   <si>
-    <t>//android.view.View[@text="Benachrichtigung bei Trainingsausfall"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
-  </si>
-  <si>
-    <t>//android.widget.CheckBox[@resource-id="chat_push_notification"]</t>
-  </si>
-  <si>
-    <t>//android.widget.ListView[@resource-id="select2-training_ids-container"]</t>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@resource-id="reminder_games_hours"]</t>
-  </si>
-  <si>
-    <t>//android.widget.Button[@text="Speichern"]</t>
+    <t>//android.view.View[@text="Typ: Ersatzanfrage an dich gestellt"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1052,7 +1052,7 @@
     <col min="23" max="23" width="32.5546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="24.44140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="26.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.21875" style="1" customWidth="1"/>
     <col min="27" max="27" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.44140625" style="1" customWidth="1"/>
     <col min="29" max="29" width="16.33203125" style="1" customWidth="1"/>
@@ -1159,82 +1159,82 @@
         <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="AA2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="AB2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="AC2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1">

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74B21C-D5CC-42F1-8C4E-56DE55A591DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A233BCA-50A8-4A3E-9104-82409776B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>xpath=//*/tr/*[text()='Bestätigung der Spielverlegung']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
   </si>
   <si>
-    <t>xpath=//*/tr/*[text()='Ersatzanfrage an dich gestellt?']/parent::*/td[@data-label = '📱 App']/div/input</t>
-  </si>
-  <si>
     <t>xpath=//*/tr/*[text()='Ersatzanfrage an dich gestellt']/parent::*/td[@data-label = '✉️ E-Mail']/div/input</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>//android.view.View[@text="Typ: Ersatzanfrage an dich gestellt"]/parent::*/android.view.View[@text="✉️ E-Mail:"]/android.widget.CheckBox</t>
+  </si>
+  <si>
+    <t>xpath=//*/tr/*[text()='Ersatzanfrage an dich gestellt']/parent::*/td[@data-label = '📱 App']/div/input</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1061,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>30</v>
@@ -1082,164 +1082,164 @@
         <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1328,91 +1328,91 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1495,96 +1495,96 @@
         <v>8</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AB6" s="1">
         <v>42</v>

--- a/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
+++ b/Data/Pages/dlgProfil_pagBenachrichtigungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A233BCA-50A8-4A3E-9104-82409776B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F3E1FA-7277-421D-87BA-B25F843C4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1368" yWindow="864" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
